--- a/tracking/result/gwangju-buk-gu_20250831.xlsx
+++ b/tracking/result/gwangju-buk-gu_20250831.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6728" uniqueCount="1217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6728" uniqueCount="1218">
   <si>
     <t>ID</t>
   </si>
@@ -2719,6 +2719,9 @@
   </si>
   <si>
     <t>201동(6/15)</t>
+  </si>
+  <si>
+    <t>201동(9/15)</t>
   </si>
   <si>
     <t>190</t>
@@ -11575,7 +11578,7 @@
         <f>IFERROR(K133/J133,0)</f>
       </c>
       <c r="N133" t="s">
-        <v>355</v>
+        <v>201</v>
       </c>
       <c r="O133" t="s">
         <v>51</v>
@@ -11634,7 +11637,7 @@
         <f>IFERROR(K134/J134,0)</f>
       </c>
       <c r="N134" t="s">
-        <v>355</v>
+        <v>201</v>
       </c>
       <c r="O134" t="s">
         <v>51</v>
@@ -11693,7 +11696,7 @@
         <f>IFERROR(K135/J135,0)</f>
       </c>
       <c r="N135" t="s">
-        <v>355</v>
+        <v>201</v>
       </c>
       <c r="O135" t="s">
         <v>51</v>
@@ -19363,7 +19366,7 @@
         <f>IFERROR(K265/J265,0)</f>
       </c>
       <c r="N265" t="s">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="O265" t="s">
         <v>51</v>
@@ -19422,7 +19425,7 @@
         <f>IFERROR(K266/J266,0)</f>
       </c>
       <c r="N266" t="s">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="O266" t="s">
         <v>51</v>
@@ -19469,7 +19472,7 @@
         <v>186</v>
       </c>
       <c r="J267" t="n" s="2">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K267" t="s">
         <v>29</v>
@@ -19481,13 +19484,13 @@
         <f>IFERROR(K267/J267,0)</f>
       </c>
       <c r="N267" t="s">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="O267" t="s">
         <v>51</v>
       </c>
       <c r="P267" t="s">
-        <v>379</v>
+        <v>902</v>
       </c>
       <c r="Q267" t="s">
         <v>29</v>
@@ -19522,7 +19525,7 @@
         <v>250</v>
       </c>
       <c r="H268" t="s" s="0">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="I268" t="s" s="0">
         <v>186</v>
@@ -19540,13 +19543,13 @@
         <f>IFERROR(K268/J268,0)</f>
       </c>
       <c r="N268" t="s">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="O268" t="s">
         <v>51</v>
       </c>
       <c r="P268" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="Q268" t="s">
         <v>29</v>
@@ -19560,7 +19563,7 @@
     </row>
     <row r="269">
       <c r="A269" t="s" s="0">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="B269" t="s" s="0">
         <v>20</v>
@@ -19575,7 +19578,7 @@
         <v>650</v>
       </c>
       <c r="F269" t="s" s="0">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="G269" t="s" s="0">
         <v>39</v>
@@ -19611,7 +19614,7 @@
         <v>29</v>
       </c>
       <c r="R269" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="S269" t="s">
         <v>28</v>
@@ -19619,7 +19622,7 @@
     </row>
     <row r="270">
       <c r="A270" t="s" s="0">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="B270" t="s" s="0">
         <v>20</v>
@@ -19634,10 +19637,10 @@
         <v>650</v>
       </c>
       <c r="F270" t="s" s="0">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="G270" t="s" s="0">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="H270" t="s" s="0">
         <v>612</v>
@@ -19678,7 +19681,7 @@
     </row>
     <row r="271">
       <c r="A271" t="s" s="0">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="B271" t="s" s="0">
         <v>20</v>
@@ -19693,7 +19696,7 @@
         <v>650</v>
       </c>
       <c r="F271" t="s" s="0">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="G271" t="s" s="0">
         <v>244</v>
@@ -19723,13 +19726,13 @@
         <v>51</v>
       </c>
       <c r="P271" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="Q271" t="s">
         <v>29</v>
       </c>
       <c r="R271" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="S271" t="s">
         <v>41</v>
@@ -19737,7 +19740,7 @@
     </row>
     <row r="272">
       <c r="A272" t="s" s="0">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="B272" t="s" s="0">
         <v>20</v>
@@ -19752,7 +19755,7 @@
         <v>650</v>
       </c>
       <c r="F272" t="s" s="0">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="G272" t="s" s="0">
         <v>711</v>
@@ -19782,13 +19785,13 @@
         <v>51</v>
       </c>
       <c r="P272" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="Q272" t="s">
         <v>29</v>
       </c>
       <c r="R272" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="S272" t="s">
         <v>71</v>
@@ -19796,7 +19799,7 @@
     </row>
     <row r="273">
       <c r="A273" t="s" s="0">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="B273" t="s" s="0">
         <v>20</v>
@@ -19805,13 +19808,13 @@
         <v>888</v>
       </c>
       <c r="D273" t="s" s="0">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="E273" t="s" s="0">
         <v>641</v>
       </c>
       <c r="F273" t="s" s="0">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="G273" t="s" s="0">
         <v>39</v>
@@ -19847,7 +19850,7 @@
         <v>29</v>
       </c>
       <c r="R273" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="S273" t="s">
         <v>28</v>
@@ -19855,7 +19858,7 @@
     </row>
     <row r="274">
       <c r="A274" t="s" s="0">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="B274" t="s" s="0">
         <v>20</v>
@@ -19864,19 +19867,19 @@
         <v>888</v>
       </c>
       <c r="D274" t="s" s="0">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="E274" t="s" s="0">
         <v>641</v>
       </c>
       <c r="F274" t="s" s="0">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="G274" t="s" s="0">
         <v>39</v>
       </c>
       <c r="H274" t="s" s="0">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="I274" t="s" s="0">
         <v>126</v>
@@ -19900,13 +19903,13 @@
         <v>51</v>
       </c>
       <c r="P274" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="Q274" t="s">
         <v>29</v>
       </c>
       <c r="R274" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="S274" t="s">
         <v>28</v>
@@ -19914,7 +19917,7 @@
     </row>
     <row r="275">
       <c r="A275" t="s" s="0">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="B275" t="s" s="0">
         <v>20</v>
@@ -19923,19 +19926,19 @@
         <v>888</v>
       </c>
       <c r="D275" t="s" s="0">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="E275" t="s" s="0">
         <v>641</v>
       </c>
       <c r="F275" t="s" s="0">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="G275" t="s" s="0">
         <v>39</v>
       </c>
       <c r="H275" t="s" s="0">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="I275" t="s" s="0">
         <v>126</v>
@@ -19973,7 +19976,7 @@
     </row>
     <row r="276">
       <c r="A276" t="s" s="0">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="B276" t="s" s="0">
         <v>20</v>
@@ -19982,13 +19985,13 @@
         <v>888</v>
       </c>
       <c r="D276" t="s" s="0">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="E276" t="s" s="0">
         <v>641</v>
       </c>
       <c r="F276" t="s" s="0">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="G276" t="s" s="0">
         <v>39</v>
@@ -20024,7 +20027,7 @@
         <v>29</v>
       </c>
       <c r="R276" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="S276" t="s">
         <v>28</v>
@@ -20032,7 +20035,7 @@
     </row>
     <row r="277">
       <c r="A277" t="s" s="0">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="B277" t="s" s="0">
         <v>20</v>
@@ -20041,13 +20044,13 @@
         <v>888</v>
       </c>
       <c r="D277" t="s" s="0">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="E277" t="s" s="0">
         <v>641</v>
       </c>
       <c r="F277" t="s" s="0">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="G277" t="s" s="0">
         <v>341</v>
@@ -20091,7 +20094,7 @@
     </row>
     <row r="278">
       <c r="A278" t="s" s="0">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="B278" t="s" s="0">
         <v>20</v>
@@ -20100,13 +20103,13 @@
         <v>888</v>
       </c>
       <c r="D278" t="s" s="0">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="E278" t="s" s="0">
         <v>641</v>
       </c>
       <c r="F278" t="s" s="0">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="G278" t="s" s="0">
         <v>39</v>
@@ -20142,7 +20145,7 @@
         <v>29</v>
       </c>
       <c r="R278" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="S278" t="s">
         <v>41</v>
@@ -20150,7 +20153,7 @@
     </row>
     <row r="279">
       <c r="A279" t="s" s="0">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="B279" t="s" s="0">
         <v>20</v>
@@ -20159,19 +20162,19 @@
         <v>888</v>
       </c>
       <c r="D279" t="s" s="0">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="E279" t="s" s="0">
         <v>641</v>
       </c>
       <c r="F279" t="s" s="0">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="G279" t="s" s="0">
         <v>559</v>
       </c>
       <c r="H279" t="s" s="0">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="I279" t="s" s="0">
         <v>27</v>
@@ -20209,7 +20212,7 @@
     </row>
     <row r="280">
       <c r="A280" t="s" s="0">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="B280" t="s" s="0">
         <v>20</v>
@@ -20218,13 +20221,13 @@
         <v>888</v>
       </c>
       <c r="D280" t="s" s="0">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="E280" t="s" s="0">
         <v>641</v>
       </c>
       <c r="F280" t="s" s="0">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="G280" t="s" s="0">
         <v>39</v>
@@ -20268,7 +20271,7 @@
     </row>
     <row r="281">
       <c r="A281" t="s" s="0">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="B281" t="s" s="0">
         <v>20</v>
@@ -20277,13 +20280,13 @@
         <v>888</v>
       </c>
       <c r="D281" t="s" s="0">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="E281" t="s" s="0">
         <v>641</v>
       </c>
       <c r="F281" t="s" s="0">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="G281" t="s" s="0">
         <v>39</v>
@@ -20319,7 +20322,7 @@
         <v>29</v>
       </c>
       <c r="R281" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="S281" t="s">
         <v>28</v>
@@ -20327,7 +20330,7 @@
     </row>
     <row r="282">
       <c r="A282" t="s" s="0">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="B282" t="s" s="0">
         <v>20</v>
@@ -20336,13 +20339,13 @@
         <v>888</v>
       </c>
       <c r="D282" t="s" s="0">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E282" t="s" s="0">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="F282" t="s" s="0">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="G282" t="s" s="0">
         <v>120</v>
@@ -20386,7 +20389,7 @@
     </row>
     <row r="283">
       <c r="A283" t="s" s="0">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="B283" t="s" s="0">
         <v>20</v>
@@ -20395,13 +20398,13 @@
         <v>888</v>
       </c>
       <c r="D283" t="s" s="0">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E283" t="s" s="0">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="F283" t="s" s="0">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="G283" t="s" s="0">
         <v>330</v>
@@ -20445,7 +20448,7 @@
     </row>
     <row r="284">
       <c r="A284" t="s" s="0">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="B284" t="s" s="0">
         <v>20</v>
@@ -20454,19 +20457,19 @@
         <v>888</v>
       </c>
       <c r="D284" t="s" s="0">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E284" t="s" s="0">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="F284" t="s" s="0">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="G284" t="s" s="0">
         <v>58</v>
       </c>
       <c r="H284" t="s" s="0">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="I284" t="s" s="0">
         <v>323</v>
@@ -20490,13 +20493,13 @@
         <v>28</v>
       </c>
       <c r="P284" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="Q284" t="s">
         <v>29</v>
       </c>
       <c r="R284" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="S284" t="s">
         <v>41</v>
@@ -20504,7 +20507,7 @@
     </row>
     <row r="285">
       <c r="A285" t="s" s="0">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="B285" t="s" s="0">
         <v>20</v>
@@ -20513,19 +20516,19 @@
         <v>888</v>
       </c>
       <c r="D285" t="s" s="0">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E285" t="s" s="0">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="F285" t="s" s="0">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="G285" t="s" s="0">
         <v>39</v>
       </c>
       <c r="H285" t="s" s="0">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="I285" t="s" s="0">
         <v>27</v>
@@ -20549,7 +20552,7 @@
         <v>28</v>
       </c>
       <c r="P285" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="Q285" t="s">
         <v>29</v>
@@ -20563,7 +20566,7 @@
     </row>
     <row r="286">
       <c r="A286" t="s" s="0">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="B286" t="s" s="0">
         <v>20</v>
@@ -20572,13 +20575,13 @@
         <v>888</v>
       </c>
       <c r="D286" t="s" s="0">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E286" t="s" s="0">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="F286" t="s" s="0">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="G286" t="s" s="0">
         <v>39</v>
@@ -20608,7 +20611,7 @@
         <v>28</v>
       </c>
       <c r="P286" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="Q286" t="s">
         <v>29</v>
@@ -20622,7 +20625,7 @@
     </row>
     <row r="287">
       <c r="A287" t="s" s="0">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="B287" t="s" s="0">
         <v>20</v>
@@ -20631,19 +20634,19 @@
         <v>888</v>
       </c>
       <c r="D287" t="s" s="0">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E287" t="s" s="0">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="F287" t="s" s="0">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="G287" t="s" s="0">
         <v>612</v>
       </c>
       <c r="H287" t="s" s="0">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="I287" t="s" s="0">
         <v>186</v>
@@ -20681,7 +20684,7 @@
     </row>
     <row r="288">
       <c r="A288" t="s" s="0">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="B288" t="s" s="0">
         <v>20</v>
@@ -20690,19 +20693,19 @@
         <v>888</v>
       </c>
       <c r="D288" t="s" s="0">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E288" t="s" s="0">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="F288" t="s" s="0">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="G288" t="s" s="0">
         <v>330</v>
       </c>
       <c r="H288" t="s" s="0">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="I288" t="s" s="0">
         <v>276</v>
@@ -20740,7 +20743,7 @@
     </row>
     <row r="289">
       <c r="A289" t="s" s="0">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="B289" t="s" s="0">
         <v>20</v>
@@ -20749,19 +20752,19 @@
         <v>888</v>
       </c>
       <c r="D289" t="s" s="0">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E289" t="s" s="0">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="F289" t="s" s="0">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="G289" t="s" s="0">
         <v>58</v>
       </c>
       <c r="H289" t="s" s="0">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="I289" t="s" s="0">
         <v>276</v>
@@ -20785,7 +20788,7 @@
         <v>28</v>
       </c>
       <c r="P289" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="Q289" t="s">
         <v>29</v>
@@ -20799,7 +20802,7 @@
     </row>
     <row r="290">
       <c r="A290" t="s" s="0">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="B290" t="s" s="0">
         <v>20</v>
@@ -20808,19 +20811,19 @@
         <v>888</v>
       </c>
       <c r="D290" t="s" s="0">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="E290" t="s" s="0">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="F290" t="s" s="0">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="G290" t="s" s="0">
         <v>39</v>
       </c>
       <c r="H290" t="s" s="0">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="I290" t="s" s="0">
         <v>27</v>
@@ -20858,22 +20861,22 @@
     </row>
     <row r="291">
       <c r="A291" t="s" s="0">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="B291" t="s" s="0">
         <v>20</v>
       </c>
       <c r="C291" t="s" s="0">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="D291" t="s" s="0">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="E291" t="s" s="0">
         <v>57</v>
       </c>
       <c r="F291" t="s" s="0">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="G291" t="s" s="0">
         <v>498</v>
@@ -20903,13 +20906,13 @@
         <v>41</v>
       </c>
       <c r="P291" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="Q291" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="R291" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="S291" t="s">
         <v>28</v>
@@ -20917,22 +20920,22 @@
     </row>
     <row r="292">
       <c r="A292" t="s" s="0">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="B292" t="s" s="0">
         <v>20</v>
       </c>
       <c r="C292" t="s" s="0">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="D292" t="s" s="0">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="E292" t="s" s="0">
         <v>57</v>
       </c>
       <c r="F292" t="s" s="0">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="G292" t="s" s="0">
         <v>39</v>
@@ -20962,13 +20965,13 @@
         <v>41</v>
       </c>
       <c r="P292" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="Q292" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="R292" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="S292" t="s">
         <v>36</v>
@@ -20976,22 +20979,22 @@
     </row>
     <row r="293">
       <c r="A293" t="s" s="0">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="B293" t="s" s="0">
         <v>20</v>
       </c>
       <c r="C293" t="s" s="0">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="D293" t="s" s="0">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="E293" t="s" s="0">
         <v>495</v>
       </c>
       <c r="F293" t="s" s="0">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="G293" t="s" s="0">
         <v>58</v>
@@ -21021,13 +21024,13 @@
         <v>51</v>
       </c>
       <c r="P293" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="Q293" t="s">
         <v>29</v>
       </c>
       <c r="R293" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="S293" t="s">
         <v>28</v>
@@ -21035,28 +21038,28 @@
     </row>
     <row r="294">
       <c r="A294" t="s" s="0">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="B294" t="s" s="0">
         <v>20</v>
       </c>
       <c r="C294" t="s" s="0">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="D294" t="s" s="0">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="E294" t="s" s="0">
         <v>495</v>
       </c>
       <c r="F294" t="s" s="0">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="G294" t="s" s="0">
         <v>58</v>
       </c>
       <c r="H294" t="s" s="0">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="I294" t="s" s="0">
         <v>27</v>
@@ -21094,22 +21097,22 @@
     </row>
     <row r="295">
       <c r="A295" t="s" s="0">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="B295" t="s" s="0">
         <v>20</v>
       </c>
       <c r="C295" t="s" s="0">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="D295" t="s" s="0">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="E295" t="s" s="0">
         <v>495</v>
       </c>
       <c r="F295" t="s" s="0">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="G295" t="s" s="0">
         <v>58</v>
@@ -21139,13 +21142,13 @@
         <v>51</v>
       </c>
       <c r="P295" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="Q295" t="s">
         <v>29</v>
       </c>
       <c r="R295" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="S295" t="s">
         <v>41</v>
@@ -21153,22 +21156,22 @@
     </row>
     <row r="296">
       <c r="A296" t="s" s="0">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="B296" t="s" s="0">
         <v>20</v>
       </c>
       <c r="C296" t="s" s="0">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="D296" t="s" s="0">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="E296" t="s" s="0">
         <v>495</v>
       </c>
       <c r="F296" t="s" s="0">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="G296" t="s" s="0">
         <v>104</v>
@@ -21198,13 +21201,13 @@
         <v>51</v>
       </c>
       <c r="P296" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="Q296" t="s">
         <v>29</v>
       </c>
       <c r="R296" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="S296" t="s">
         <v>71</v>
@@ -21212,22 +21215,22 @@
     </row>
     <row r="297">
       <c r="A297" t="s" s="0">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="B297" t="s" s="0">
         <v>20</v>
       </c>
       <c r="C297" t="s" s="0">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="D297" t="s" s="0">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="E297" t="s" s="0">
         <v>495</v>
       </c>
       <c r="F297" t="s" s="0">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="G297" t="s" s="0">
         <v>176</v>
@@ -21257,13 +21260,13 @@
         <v>51</v>
       </c>
       <c r="P297" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="Q297" t="s">
         <v>29</v>
       </c>
       <c r="R297" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="S297" t="s">
         <v>60</v>
@@ -21271,28 +21274,28 @@
     </row>
     <row r="298">
       <c r="A298" t="s" s="0">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="B298" t="s" s="0">
         <v>20</v>
       </c>
       <c r="C298" t="s" s="0">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="D298" t="s" s="0">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="E298" t="s" s="0">
         <v>495</v>
       </c>
       <c r="F298" t="s" s="0">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="G298" t="s" s="0">
         <v>39</v>
       </c>
       <c r="H298" t="s" s="0">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="I298" t="s" s="0">
         <v>27</v>
@@ -21316,13 +21319,13 @@
         <v>51</v>
       </c>
       <c r="P298" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="Q298" t="s">
         <v>29</v>
       </c>
       <c r="R298" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="S298" t="s">
         <v>79</v>
@@ -21330,22 +21333,22 @@
     </row>
     <row r="299">
       <c r="A299" t="s" s="0">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="B299" t="s" s="0">
         <v>20</v>
       </c>
       <c r="C299" t="s" s="0">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="D299" t="s" s="0">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="E299" t="s" s="0">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="F299" t="s" s="0">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="G299" t="s" s="0">
         <v>39</v>
@@ -21375,13 +21378,13 @@
         <v>349</v>
       </c>
       <c r="P299" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="Q299" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="R299" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="S299" t="s">
         <v>28</v>
@@ -21389,28 +21392,28 @@
     </row>
     <row r="300">
       <c r="A300" t="s" s="0">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="B300" t="s" s="0">
         <v>20</v>
       </c>
       <c r="C300" t="s" s="0">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="D300" t="s" s="0">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="E300" t="s" s="0">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="F300" t="s" s="0">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="G300" t="s" s="0">
         <v>39</v>
       </c>
       <c r="H300" t="s" s="0">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="I300" t="s" s="0">
         <v>27</v>
@@ -21434,13 +21437,13 @@
         <v>349</v>
       </c>
       <c r="P300" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="Q300" t="s">
         <v>29</v>
       </c>
       <c r="R300" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="S300" t="s">
         <v>36</v>
@@ -21448,22 +21451,22 @@
     </row>
     <row r="301">
       <c r="A301" t="s" s="0">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="B301" t="s" s="0">
         <v>20</v>
       </c>
       <c r="C301" t="s" s="0">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="D301" t="s" s="0">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="E301" t="s" s="0">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="F301" t="s" s="0">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="G301" t="s" s="0">
         <v>39</v>
@@ -21493,13 +21496,13 @@
         <v>349</v>
       </c>
       <c r="P301" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="Q301" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="R301" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="S301" t="s">
         <v>41</v>
@@ -21507,28 +21510,28 @@
     </row>
     <row r="302">
       <c r="A302" t="s" s="0">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="B302" t="s" s="0">
         <v>20</v>
       </c>
       <c r="C302" t="s" s="0">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="D302" t="s" s="0">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="E302" t="s" s="0">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="F302" t="s" s="0">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="G302" t="s" s="0">
         <v>581</v>
       </c>
       <c r="H302" t="s" s="0">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="I302" t="s" s="0">
         <v>186</v>
@@ -21552,13 +21555,13 @@
         <v>349</v>
       </c>
       <c r="P302" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="Q302" t="s">
         <v>29</v>
       </c>
       <c r="R302" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="S302" t="s">
         <v>71</v>
@@ -21566,28 +21569,28 @@
     </row>
     <row r="303">
       <c r="A303" t="s" s="0">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="B303" t="s" s="0">
         <v>20</v>
       </c>
       <c r="C303" t="s" s="0">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="D303" t="s" s="0">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="E303" t="s" s="0">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="F303" t="s" s="0">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="G303" t="s" s="0">
         <v>581</v>
       </c>
       <c r="H303" t="s" s="0">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="I303" t="s" s="0">
         <v>186</v>
@@ -21611,13 +21614,13 @@
         <v>349</v>
       </c>
       <c r="P303" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="Q303" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="R303" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="S303" t="s">
         <v>60</v>
@@ -21625,25 +21628,25 @@
     </row>
     <row r="304">
       <c r="A304" t="s" s="0">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="B304" t="s" s="0">
         <v>20</v>
       </c>
       <c r="C304" t="s" s="0">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="D304" t="s" s="0">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="E304" t="s" s="0">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="F304" t="s" s="0">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="G304" t="s" s="0">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="H304" t="s" s="0">
         <v>250</v>
@@ -21684,28 +21687,28 @@
     </row>
     <row r="305">
       <c r="A305" t="s" s="0">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="B305" t="s" s="0">
         <v>20</v>
       </c>
       <c r="C305" t="s" s="0">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="D305" t="s" s="0">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="E305" t="s" s="0">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="F305" t="s" s="0">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="G305" t="s" s="0">
         <v>669</v>
       </c>
       <c r="H305" t="s" s="0">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="I305" t="s" s="0">
         <v>27</v>
@@ -21743,28 +21746,28 @@
     </row>
     <row r="306">
       <c r="A306" t="s" s="0">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="B306" t="s" s="0">
         <v>20</v>
       </c>
       <c r="C306" t="s" s="0">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="D306" t="s" s="0">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="E306" t="s" s="0">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="F306" t="s" s="0">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="G306" t="s" s="0">
         <v>669</v>
       </c>
       <c r="H306" t="s" s="0">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="I306" t="s" s="0">
         <v>27</v>
@@ -21802,28 +21805,28 @@
     </row>
     <row r="307">
       <c r="A307" t="s" s="0">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="B307" t="s" s="0">
         <v>20</v>
       </c>
       <c r="C307" t="s" s="0">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="D307" t="s" s="0">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="E307" t="s" s="0">
         <v>85</v>
       </c>
       <c r="F307" t="s" s="0">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="G307" t="s" s="0">
         <v>93</v>
       </c>
       <c r="H307" t="s" s="0">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="I307" t="s" s="0">
         <v>27</v>
@@ -21847,13 +21850,13 @@
         <v>36</v>
       </c>
       <c r="P307" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="Q307" t="s">
         <v>29</v>
       </c>
       <c r="R307" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="S307" t="s">
         <v>28</v>
@@ -21861,22 +21864,22 @@
     </row>
     <row r="308">
       <c r="A308" t="s" s="0">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="B308" t="s" s="0">
         <v>20</v>
       </c>
       <c r="C308" t="s" s="0">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="D308" t="s" s="0">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="E308" t="s" s="0">
         <v>85</v>
       </c>
       <c r="F308" t="s" s="0">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="G308" t="s" s="0">
         <v>39</v>
@@ -21906,13 +21909,13 @@
         <v>36</v>
       </c>
       <c r="P308" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="Q308" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="R308" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="S308" t="s">
         <v>36</v>
@@ -21920,28 +21923,28 @@
     </row>
     <row r="309">
       <c r="A309" t="s" s="0">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="B309" t="s" s="0">
         <v>20</v>
       </c>
       <c r="C309" t="s" s="0">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="D309" t="s" s="0">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="E309" t="s" s="0">
         <v>552</v>
       </c>
       <c r="F309" t="s" s="0">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="G309" t="s" s="0">
         <v>93</v>
       </c>
       <c r="H309" t="s" s="0">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="I309" t="s" s="0">
         <v>27</v>
@@ -21965,13 +21968,13 @@
         <v>28</v>
       </c>
       <c r="P309" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="Q309" t="s">
         <v>29</v>
       </c>
       <c r="R309" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="S309" t="s">
         <v>28</v>
@@ -21979,28 +21982,28 @@
     </row>
     <row r="310">
       <c r="A310" t="s" s="0">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="B310" t="s" s="0">
         <v>20</v>
       </c>
       <c r="C310" t="s" s="0">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="D310" t="s" s="0">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="E310" t="s" s="0">
         <v>552</v>
       </c>
       <c r="F310" t="s" s="0">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="G310" t="s" s="0">
         <v>39</v>
       </c>
       <c r="H310" t="s" s="0">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="I310" t="s" s="0">
         <v>27</v>
@@ -22024,13 +22027,13 @@
         <v>28</v>
       </c>
       <c r="P310" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="Q310" t="s">
         <v>29</v>
       </c>
       <c r="R310" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="S310" t="s">
         <v>36</v>
@@ -22038,22 +22041,22 @@
     </row>
     <row r="311">
       <c r="A311" t="s" s="0">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="B311" t="s" s="0">
         <v>20</v>
       </c>
       <c r="C311" t="s" s="0">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="D311" t="s" s="0">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="E311" t="s" s="0">
         <v>552</v>
       </c>
       <c r="F311" t="s" s="0">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="G311" t="s" s="0">
         <v>645</v>
@@ -22083,7 +22086,7 @@
         <v>28</v>
       </c>
       <c r="P311" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="Q311" t="s">
         <v>29</v>
@@ -22097,22 +22100,22 @@
     </row>
     <row r="312">
       <c r="A312" t="s" s="0">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="B312" t="s" s="0">
         <v>20</v>
       </c>
       <c r="C312" t="s" s="0">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="D312" t="s" s="0">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="E312" t="s" s="0">
         <v>552</v>
       </c>
       <c r="F312" t="s" s="0">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="G312" t="s" s="0">
         <v>433</v>
@@ -22156,28 +22159,28 @@
     </row>
     <row r="313">
       <c r="A313" t="s" s="0">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="B313" t="s" s="0">
         <v>20</v>
       </c>
       <c r="C313" t="s" s="0">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="D313" t="s" s="0">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="E313" t="s" s="0">
         <v>552</v>
       </c>
       <c r="F313" t="s" s="0">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="G313" t="s" s="0">
         <v>361</v>
       </c>
       <c r="H313" t="s" s="0">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="I313" t="s" s="0">
         <v>27</v>
@@ -22201,13 +22204,13 @@
         <v>28</v>
       </c>
       <c r="P313" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="Q313" t="s">
         <v>29</v>
       </c>
       <c r="R313" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="S313" t="s">
         <v>60</v>
@@ -22215,28 +22218,28 @@
     </row>
     <row r="314">
       <c r="A314" t="s" s="0">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="B314" t="s" s="0">
         <v>20</v>
       </c>
       <c r="C314" t="s" s="0">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="D314" t="s" s="0">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="E314" t="s" s="0">
         <v>552</v>
       </c>
       <c r="F314" t="s" s="0">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="G314" t="s" s="0">
         <v>361</v>
       </c>
       <c r="H314" t="s" s="0">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="I314" t="s" s="0">
         <v>27</v>
@@ -22274,28 +22277,28 @@
     </row>
     <row r="315">
       <c r="A315" t="s" s="0">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="B315" t="s" s="0">
         <v>20</v>
       </c>
       <c r="C315" t="s" s="0">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="D315" t="s" s="0">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="E315" t="s" s="0">
         <v>552</v>
       </c>
       <c r="F315" t="s" s="0">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="G315" t="s" s="0">
         <v>93</v>
       </c>
       <c r="H315" t="s" s="0">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="I315" t="s" s="0">
         <v>27</v>
@@ -22333,28 +22336,28 @@
     </row>
     <row r="316">
       <c r="A316" t="s" s="0">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="B316" t="s" s="0">
         <v>20</v>
       </c>
       <c r="C316" t="s" s="0">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="D316" t="s" s="0">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="E316" t="s" s="0">
         <v>552</v>
       </c>
       <c r="F316" t="s" s="0">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="G316" t="s" s="0">
         <v>176</v>
       </c>
       <c r="H316" t="s" s="0">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="I316" t="s" s="0">
         <v>27</v>
@@ -22378,13 +22381,13 @@
         <v>28</v>
       </c>
       <c r="P316" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="Q316" t="s">
         <v>29</v>
       </c>
       <c r="R316" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="S316" t="s">
         <v>82</v>
@@ -22392,28 +22395,28 @@
     </row>
     <row r="317">
       <c r="A317" t="s" s="0">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="B317" t="s" s="0">
         <v>20</v>
       </c>
       <c r="C317" t="s" s="0">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="D317" t="s" s="0">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="E317" t="s" s="0">
         <v>552</v>
       </c>
       <c r="F317" t="s" s="0">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="G317" t="s" s="0">
         <v>176</v>
       </c>
       <c r="H317" t="s" s="0">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="I317" t="s" s="0">
         <v>27</v>
@@ -22437,13 +22440,13 @@
         <v>28</v>
       </c>
       <c r="P317" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="Q317" t="s">
         <v>29</v>
       </c>
       <c r="R317" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="S317" t="s">
         <v>259</v>
@@ -22451,28 +22454,28 @@
     </row>
     <row r="318">
       <c r="A318" t="s" s="0">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="B318" t="s" s="0">
         <v>20</v>
       </c>
       <c r="C318" t="s" s="0">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="D318" t="s" s="0">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="E318" t="s" s="0">
         <v>552</v>
       </c>
       <c r="F318" t="s" s="0">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="G318" t="s" s="0">
         <v>39</v>
       </c>
       <c r="H318" t="s" s="0">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="I318" t="s" s="0">
         <v>27</v>
@@ -22510,22 +22513,22 @@
     </row>
     <row r="319">
       <c r="A319" t="s" s="0">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="B319" t="s" s="0">
         <v>20</v>
       </c>
       <c r="C319" t="s" s="0">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="D319" t="s" s="0">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="E319" t="s" s="0">
         <v>57</v>
       </c>
       <c r="F319" t="s" s="0">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="G319" t="s" s="0">
         <v>58</v>
@@ -22561,7 +22564,7 @@
         <v>29</v>
       </c>
       <c r="R319" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="S319" t="s">
         <v>28</v>
@@ -22569,22 +22572,22 @@
     </row>
     <row r="320">
       <c r="A320" t="s" s="0">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="B320" t="s" s="0">
         <v>20</v>
       </c>
       <c r="C320" t="s" s="0">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="D320" t="s" s="0">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="E320" t="s" s="0">
         <v>57</v>
       </c>
       <c r="F320" t="s" s="0">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="G320" t="s" s="0">
         <v>58</v>
@@ -22614,13 +22617,13 @@
         <v>28</v>
       </c>
       <c r="P320" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="Q320" t="s">
         <v>29</v>
       </c>
       <c r="R320" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="S320" t="s">
         <v>36</v>
@@ -22628,28 +22631,28 @@
     </row>
     <row r="321">
       <c r="A321" t="s" s="0">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="B321" t="s" s="0">
         <v>20</v>
       </c>
       <c r="C321" t="s" s="0">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="D321" t="s" s="0">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="E321" t="s" s="0">
         <v>57</v>
       </c>
       <c r="F321" t="s" s="0">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="G321" t="s" s="0">
         <v>361</v>
       </c>
       <c r="H321" t="s" s="0">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="I321" t="s" s="0">
         <v>27</v>
@@ -22673,13 +22676,13 @@
         <v>28</v>
       </c>
       <c r="P321" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="Q321" t="s">
         <v>29</v>
       </c>
       <c r="R321" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="S321" t="s">
         <v>41</v>
@@ -22687,22 +22690,22 @@
     </row>
     <row r="322">
       <c r="A322" t="s" s="0">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="B322" t="s" s="0">
         <v>20</v>
       </c>
       <c r="C322" t="s" s="0">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="D322" t="s" s="0">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="E322" t="s" s="0">
         <v>57</v>
       </c>
       <c r="F322" t="s" s="0">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="G322" t="s" s="0">
         <v>39</v>
@@ -22732,7 +22735,7 @@
         <v>28</v>
       </c>
       <c r="P322" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="Q322" t="s">
         <v>29</v>
@@ -22746,22 +22749,22 @@
     </row>
     <row r="323">
       <c r="A323" t="s" s="0">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="B323" t="s" s="0">
         <v>20</v>
       </c>
       <c r="C323" t="s" s="0">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="D323" t="s" s="0">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="E323" t="s" s="0">
         <v>57</v>
       </c>
       <c r="F323" t="s" s="0">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="G323" t="s" s="0">
         <v>39</v>
@@ -22805,22 +22808,22 @@
     </row>
     <row r="324">
       <c r="A324" t="s" s="0">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="B324" t="s" s="0">
         <v>20</v>
       </c>
       <c r="C324" t="s" s="0">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="D324" t="s" s="0">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="E324" t="s" s="0">
         <v>57</v>
       </c>
       <c r="F324" t="s" s="0">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="G324" t="s" s="0">
         <v>39</v>
@@ -22850,13 +22853,13 @@
         <v>28</v>
       </c>
       <c r="P324" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="Q324" t="s">
         <v>29</v>
       </c>
       <c r="R324" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="S324" t="s">
         <v>79</v>
@@ -22864,25 +22867,25 @@
     </row>
     <row r="325">
       <c r="A325" t="s" s="0">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="B325" t="s" s="0">
         <v>20</v>
       </c>
       <c r="C325" t="s" s="0">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="D325" t="s" s="0">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="E325" t="s" s="0">
         <v>57</v>
       </c>
       <c r="F325" t="s" s="0">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="G325" t="s" s="0">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="H325" t="s" s="0">
         <v>211</v>
@@ -22909,13 +22912,13 @@
         <v>28</v>
       </c>
       <c r="P325" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="Q325" t="s">
         <v>29</v>
       </c>
       <c r="R325" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="S325" t="s">
         <v>31</v>
@@ -22923,16 +22926,16 @@
     </row>
     <row r="326">
       <c r="A326" t="s" s="0">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="B326" t="s" s="0">
         <v>20</v>
       </c>
       <c r="C326" t="s" s="0">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="D326" t="s" s="0">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="E326" t="s" s="0">
         <v>663</v>
@@ -22982,16 +22985,16 @@
     </row>
     <row r="327">
       <c r="A327" t="s" s="0">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="B327" t="s" s="0">
         <v>20</v>
       </c>
       <c r="C327" t="s" s="0">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="D327" t="s" s="0">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="E327" t="s" s="0">
         <v>663</v>
@@ -23027,13 +23030,13 @@
         <v>51</v>
       </c>
       <c r="P327" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="Q327" t="s">
         <v>29</v>
       </c>
       <c r="R327" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="S327" t="s">
         <v>36</v>
@@ -23041,16 +23044,16 @@
     </row>
     <row r="328">
       <c r="A328" t="s" s="0">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="B328" t="s" s="0">
         <v>20</v>
       </c>
       <c r="C328" t="s" s="0">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="D328" t="s" s="0">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="E328" t="s" s="0">
         <v>663</v>
@@ -23062,7 +23065,7 @@
         <v>711</v>
       </c>
       <c r="H328" t="s" s="0">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="I328" t="s" s="0">
         <v>186</v>
@@ -23100,16 +23103,16 @@
     </row>
     <row r="329">
       <c r="A329" t="s" s="0">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="B329" t="s" s="0">
         <v>20</v>
       </c>
       <c r="C329" t="s" s="0">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="D329" t="s" s="0">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="E329" t="s" s="0">
         <v>663</v>
@@ -23159,22 +23162,22 @@
     </row>
     <row r="330">
       <c r="A330" t="s" s="0">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="B330" t="s" s="0">
         <v>20</v>
       </c>
       <c r="C330" t="s" s="0">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="D330" t="s" s="0">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="E330" t="s" s="0">
         <v>57</v>
       </c>
       <c r="F330" t="s" s="0">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="G330" t="s" s="0">
         <v>58</v>
@@ -23204,13 +23207,13 @@
         <v>41</v>
       </c>
       <c r="P330" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="Q330" t="s">
         <v>29</v>
       </c>
       <c r="R330" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="S330" t="s">
         <v>28</v>
@@ -23218,22 +23221,22 @@
     </row>
     <row r="331">
       <c r="A331" t="s" s="0">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="B331" t="s" s="0">
         <v>20</v>
       </c>
       <c r="C331" t="s" s="0">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="D331" t="s" s="0">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="E331" t="s" s="0">
         <v>57</v>
       </c>
       <c r="F331" t="s" s="0">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="G331" t="s" s="0">
         <v>58</v>
@@ -23269,7 +23272,7 @@
         <v>29</v>
       </c>
       <c r="R331" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="S331" t="s">
         <v>36</v>
@@ -23277,28 +23280,28 @@
     </row>
     <row r="332">
       <c r="A332" t="s" s="0">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="B332" t="s" s="0">
         <v>20</v>
       </c>
       <c r="C332" t="s" s="0">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="D332" t="s" s="0">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="E332" t="s" s="0">
         <v>57</v>
       </c>
       <c r="F332" t="s" s="0">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="G332" t="s" s="0">
         <v>361</v>
       </c>
       <c r="H332" t="s" s="0">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="I332" t="s" s="0">
         <v>27</v>
@@ -23322,13 +23325,13 @@
         <v>41</v>
       </c>
       <c r="P332" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="Q332" t="s">
         <v>29</v>
       </c>
       <c r="R332" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="S332" t="s">
         <v>41</v>
@@ -23336,28 +23339,28 @@
     </row>
     <row r="333">
       <c r="A333" t="s" s="0">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="B333" t="s" s="0">
         <v>20</v>
       </c>
       <c r="C333" t="s" s="0">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="D333" t="s" s="0">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="E333" t="s" s="0">
         <v>57</v>
       </c>
       <c r="F333" t="s" s="0">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="G333" t="s" s="0">
         <v>361</v>
       </c>
       <c r="H333" t="s" s="0">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="I333" t="s" s="0">
         <v>27</v>
@@ -23387,7 +23390,7 @@
         <v>29</v>
       </c>
       <c r="R333" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="S333" t="s">
         <v>71</v>
@@ -23395,22 +23398,22 @@
     </row>
     <row r="334">
       <c r="A334" t="s" s="0">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="B334" t="s" s="0">
         <v>20</v>
       </c>
       <c r="C334" t="s" s="0">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="D334" t="s" s="0">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="E334" t="s" s="0">
         <v>57</v>
       </c>
       <c r="F334" t="s" s="0">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="G334" t="s" s="0">
         <v>39</v>
@@ -23440,13 +23443,13 @@
         <v>41</v>
       </c>
       <c r="P334" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="Q334" t="s">
         <v>29</v>
       </c>
       <c r="R334" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="S334" t="s">
         <v>60</v>
@@ -23454,22 +23457,22 @@
     </row>
     <row r="335">
       <c r="A335" t="s" s="0">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="B335" t="s" s="0">
         <v>20</v>
       </c>
       <c r="C335" t="s" s="0">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="D335" t="s" s="0">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="E335" t="s" s="0">
         <v>57</v>
       </c>
       <c r="F335" t="s" s="0">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="G335" t="s" s="0">
         <v>39</v>
@@ -23499,13 +23502,13 @@
         <v>41</v>
       </c>
       <c r="P335" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="Q335" t="s">
         <v>29</v>
       </c>
       <c r="R335" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="S335" t="s">
         <v>79</v>
@@ -23513,28 +23516,28 @@
     </row>
     <row r="336">
       <c r="A336" t="s" s="0">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="B336" t="s" s="0">
         <v>20</v>
       </c>
       <c r="C336" t="s" s="0">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="D336" t="s" s="0">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="E336" t="s" s="0">
         <v>57</v>
       </c>
       <c r="F336" t="s" s="0">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="G336" t="s" s="0">
         <v>39</v>
       </c>
       <c r="H336" t="s" s="0">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="I336" t="s" s="0">
         <v>27</v>
@@ -23558,13 +23561,13 @@
         <v>41</v>
       </c>
       <c r="P336" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="Q336" t="s">
         <v>29</v>
       </c>
       <c r="R336" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="S336" t="s">
         <v>31</v>
@@ -23572,28 +23575,28 @@
     </row>
     <row r="337">
       <c r="A337" t="s" s="0">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="B337" t="s" s="0">
         <v>20</v>
       </c>
       <c r="C337" t="s" s="0">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="D337" t="s" s="0">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="E337" t="s" s="0">
         <v>57</v>
       </c>
       <c r="F337" t="s" s="0">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="G337" t="s" s="0">
         <v>39</v>
       </c>
       <c r="H337" t="s" s="0">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="I337" t="s" s="0">
         <v>27</v>
@@ -23631,28 +23634,28 @@
     </row>
     <row r="338">
       <c r="A338" t="s" s="0">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="B338" t="s" s="0">
         <v>20</v>
       </c>
       <c r="C338" t="s" s="0">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="D338" t="s" s="0">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="E338" t="s" s="0">
         <v>57</v>
       </c>
       <c r="F338" t="s" s="0">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="G338" t="s" s="0">
         <v>39</v>
       </c>
       <c r="H338" t="s" s="0">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="I338" t="s" s="0">
         <v>27</v>
@@ -23690,22 +23693,22 @@
     </row>
     <row r="339">
       <c r="A339" t="s" s="0">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="B339" t="s" s="0">
         <v>20</v>
       </c>
       <c r="C339" t="s" s="0">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="D339" t="s" s="0">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="E339" t="s" s="0">
         <v>57</v>
       </c>
       <c r="F339" t="s" s="0">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="G339" t="s" s="0">
         <v>231</v>
@@ -23735,13 +23738,13 @@
         <v>41</v>
       </c>
       <c r="P339" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="Q339" t="s">
         <v>29</v>
       </c>
       <c r="R339" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="S339" t="s">
         <v>95</v>
@@ -23749,28 +23752,28 @@
     </row>
     <row r="340">
       <c r="A340" t="s" s="0">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="B340" t="s" s="0">
         <v>20</v>
       </c>
       <c r="C340" t="s" s="0">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="D340" t="s" s="0">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="E340" t="s" s="0">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="F340" t="s" s="0">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="G340" t="s" s="0">
         <v>491</v>
       </c>
       <c r="H340" t="s" s="0">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="I340" t="s" s="0">
         <v>27</v>
@@ -23788,19 +23791,19 @@
         <f>IFERROR(K340/J340,0)</f>
       </c>
       <c r="N340" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="O340" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="P340" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="Q340" t="s">
         <v>29</v>
       </c>
       <c r="R340" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="S340" t="s">
         <v>560</v>
@@ -23808,31 +23811,31 @@
     </row>
     <row r="341">
       <c r="A341" t="s" s="0">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="B341" t="s" s="0">
         <v>20</v>
       </c>
       <c r="C341" t="s" s="0">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="D341" t="s" s="0">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="E341" t="s" s="0">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="F341" t="s" s="0">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="G341" t="s" s="0">
         <v>600</v>
       </c>
       <c r="H341" t="s" s="0">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="I341" t="s" s="0">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="J341" t="n" s="2">
         <v>20.0</v>
@@ -23847,19 +23850,19 @@
         <f>IFERROR(K341/J341,0)</f>
       </c>
       <c r="N341" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="O341" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="P341" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="Q341" t="s">
         <v>29</v>
       </c>
       <c r="R341" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="S341" t="s">
         <v>665</v>
@@ -23867,28 +23870,28 @@
     </row>
     <row r="342">
       <c r="A342" t="s" s="0">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="B342" t="s" s="0">
         <v>20</v>
       </c>
       <c r="C342" t="s" s="0">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="D342" t="s" s="0">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="E342" t="s" s="0">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="F342" t="s" s="0">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="G342" t="s" s="0">
         <v>491</v>
       </c>
       <c r="H342" t="s" s="0">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="I342" t="s" s="0">
         <v>27</v>
@@ -23906,19 +23909,19 @@
         <f>IFERROR(K342/J342,0)</f>
       </c>
       <c r="N342" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="O342" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="P342" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="Q342" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="R342" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="S342" t="s">
         <v>331</v>
@@ -23926,31 +23929,31 @@
     </row>
     <row r="343">
       <c r="A343" t="s" s="0">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="B343" t="s" s="0">
         <v>20</v>
       </c>
       <c r="C343" t="s" s="0">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="D343" t="s" s="0">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="E343" t="s" s="0">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="F343" t="s" s="0">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="G343" t="s" s="0">
         <v>886</v>
       </c>
       <c r="H343" t="s" s="0">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="I343" t="s" s="0">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="J343" t="n" s="2">
         <v>19.95</v>
@@ -23965,13 +23968,13 @@
         <f>IFERROR(K343/J343,0)</f>
       </c>
       <c r="N343" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="O343" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="P343" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="Q343" t="s">
         <v>29</v>
@@ -23985,25 +23988,25 @@
     </row>
     <row r="344">
       <c r="A344" t="s" s="0">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="B344" t="s" s="0">
         <v>20</v>
       </c>
       <c r="C344" t="s" s="0">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="D344" t="s" s="0">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="E344" t="s" s="0">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="F344" t="s" s="0">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="G344" t="s" s="0">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="H344" t="s" s="0">
         <v>211</v>
@@ -24024,16 +24027,16 @@
         <f>IFERROR(K344/J344,0)</f>
       </c>
       <c r="N344" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="O344" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="P344" t="s">
         <v>29</v>
       </c>
       <c r="Q344" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="R344" t="s">
         <v>29</v>
@@ -24044,22 +24047,22 @@
     </row>
     <row r="345">
       <c r="A345" t="s" s="0">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="B345" t="s" s="0">
         <v>20</v>
       </c>
       <c r="C345" t="s" s="0">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="D345" t="s" s="0">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="E345" t="s" s="0">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="F345" t="s" s="0">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="G345" t="s" s="0">
         <v>58</v>
@@ -24083,19 +24086,19 @@
         <f>IFERROR(K345/J345,0)</f>
       </c>
       <c r="N345" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="O345" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="P345" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="Q345" t="s">
         <v>29</v>
       </c>
       <c r="R345" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="S345" t="s">
         <v>28</v>
@@ -24103,28 +24106,28 @@
     </row>
     <row r="346">
       <c r="A346" t="s" s="0">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="B346" t="s" s="0">
         <v>20</v>
       </c>
       <c r="C346" t="s" s="0">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="D346" t="s" s="0">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="E346" t="s" s="0">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="F346" t="s" s="0">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="G346" t="s" s="0">
         <v>58</v>
       </c>
       <c r="H346" t="s" s="0">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="I346" t="s" s="0">
         <v>27</v>
@@ -24142,19 +24145,19 @@
         <f>IFERROR(K346/J346,0)</f>
       </c>
       <c r="N346" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="O346" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="P346" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="Q346" t="s">
         <v>29</v>
       </c>
       <c r="R346" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="S346" t="s">
         <v>36</v>
@@ -24162,22 +24165,22 @@
     </row>
     <row r="347">
       <c r="A347" t="s" s="0">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="B347" t="s" s="0">
         <v>20</v>
       </c>
       <c r="C347" t="s" s="0">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="D347" t="s" s="0">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="E347" t="s" s="0">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="F347" t="s" s="0">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="G347" t="s" s="0">
         <v>58</v>
@@ -24201,19 +24204,19 @@
         <f>IFERROR(K347/J347,0)</f>
       </c>
       <c r="N347" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="O347" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="P347" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="Q347" t="s">
         <v>29</v>
       </c>
       <c r="R347" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="S347" t="s">
         <v>41</v>
@@ -24221,22 +24224,22 @@
     </row>
     <row r="348">
       <c r="A348" t="s" s="0">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="B348" t="s" s="0">
         <v>20</v>
       </c>
       <c r="C348" t="s" s="0">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="D348" t="s" s="0">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="E348" t="s" s="0">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="F348" t="s" s="0">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="G348" t="s" s="0">
         <v>481</v>
@@ -24260,19 +24263,19 @@
         <f>IFERROR(K348/J348,0)</f>
       </c>
       <c r="N348" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="O348" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="P348" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="Q348" t="s">
         <v>29</v>
       </c>
       <c r="R348" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="S348" t="s">
         <v>71</v>
@@ -24280,22 +24283,22 @@
     </row>
     <row r="349">
       <c r="A349" t="s" s="0">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="B349" t="s" s="0">
         <v>20</v>
       </c>
       <c r="C349" t="s" s="0">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="D349" t="s" s="0">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="E349" t="s" s="0">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="F349" t="s" s="0">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="G349" t="s" s="0">
         <v>481</v>
@@ -24319,19 +24322,19 @@
         <f>IFERROR(K349/J349,0)</f>
       </c>
       <c r="N349" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="O349" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="P349" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="Q349" t="s">
         <v>29</v>
       </c>
       <c r="R349" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="S349" t="s">
         <v>60</v>
@@ -24339,28 +24342,28 @@
     </row>
     <row r="350">
       <c r="A350" t="s" s="0">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="B350" t="s" s="0">
         <v>20</v>
       </c>
       <c r="C350" t="s" s="0">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="D350" t="s" s="0">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="E350" t="s" s="0">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="F350" t="s" s="0">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="G350" t="s" s="0">
         <v>481</v>
       </c>
       <c r="H350" t="s" s="0">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="I350" t="s" s="0">
         <v>27</v>
@@ -24378,19 +24381,19 @@
         <f>IFERROR(K350/J350,0)</f>
       </c>
       <c r="N350" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="O350" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="P350" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="Q350" t="s">
         <v>29</v>
       </c>
       <c r="R350" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="S350" t="s">
         <v>79</v>
@@ -24398,28 +24401,28 @@
     </row>
     <row r="351">
       <c r="A351" t="s" s="0">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="B351" t="s" s="0">
         <v>20</v>
       </c>
       <c r="C351" t="s" s="0">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="D351" t="s" s="0">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="E351" t="s" s="0">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="F351" t="s" s="0">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="G351" t="s" s="0">
         <v>39</v>
       </c>
       <c r="H351" t="s" s="0">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="I351" t="s" s="0">
         <v>27</v>
@@ -24437,19 +24440,19 @@
         <f>IFERROR(K351/J351,0)</f>
       </c>
       <c r="N351" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="O351" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="P351" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="Q351" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="R351" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="S351" t="s">
         <v>31</v>
@@ -24457,28 +24460,28 @@
     </row>
     <row r="352">
       <c r="A352" t="s" s="0">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="B352" t="s" s="0">
         <v>20</v>
       </c>
       <c r="C352" t="s" s="0">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="D352" t="s" s="0">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="E352" t="s" s="0">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="F352" t="s" s="0">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="G352" t="s" s="0">
         <v>39</v>
       </c>
       <c r="H352" t="s" s="0">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="I352" t="s" s="0">
         <v>27</v>
@@ -24496,19 +24499,19 @@
         <f>IFERROR(K352/J352,0)</f>
       </c>
       <c r="N352" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="O352" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="P352" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="Q352" t="s">
         <v>29</v>
       </c>
       <c r="R352" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="S352" t="s">
         <v>82</v>
@@ -24516,28 +24519,28 @@
     </row>
     <row r="353">
       <c r="A353" t="s" s="0">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="B353" t="s" s="0">
         <v>20</v>
       </c>
       <c r="C353" t="s" s="0">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="D353" t="s" s="0">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="E353" t="s" s="0">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="F353" t="s" s="0">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="G353" t="s" s="0">
         <v>39</v>
       </c>
       <c r="H353" t="s" s="0">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="I353" t="s" s="0">
         <v>27</v>
@@ -24555,19 +24558,19 @@
         <f>IFERROR(K353/J353,0)</f>
       </c>
       <c r="N353" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="O353" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="P353" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="Q353" t="s">
         <v>29</v>
       </c>
       <c r="R353" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="S353" t="s">
         <v>259</v>
@@ -24575,28 +24578,28 @@
     </row>
     <row r="354">
       <c r="A354" t="s" s="0">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="B354" t="s" s="0">
         <v>20</v>
       </c>
       <c r="C354" t="s" s="0">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="D354" t="s" s="0">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="E354" t="s" s="0">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="F354" t="s" s="0">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="G354" t="s" s="0">
         <v>39</v>
       </c>
       <c r="H354" t="s" s="0">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="I354" t="s" s="0">
         <v>27</v>
@@ -24614,19 +24617,19 @@
         <f>IFERROR(K354/J354,0)</f>
       </c>
       <c r="N354" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="O354" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="P354" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="Q354" t="s">
         <v>29</v>
       </c>
       <c r="R354" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="S354" t="s">
         <v>95</v>
@@ -24634,7 +24637,7 @@
     </row>
     <row r="355">
       <c r="A355" t="s" s="0">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="B355" t="s" s="0">
         <v>20</v>
@@ -24643,19 +24646,19 @@
         <v>709</v>
       </c>
       <c r="D355" t="s" s="0">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="E355" t="s" s="0">
         <v>182</v>
       </c>
       <c r="F355" t="s" s="0">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="G355" t="s" s="0">
         <v>424</v>
       </c>
       <c r="H355" t="s" s="0">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="I355" t="s" s="0">
         <v>27</v>
@@ -24693,7 +24696,7 @@
     </row>
     <row r="356">
       <c r="A356" t="s" s="0">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="B356" t="s" s="0">
         <v>20</v>
@@ -24702,19 +24705,19 @@
         <v>709</v>
       </c>
       <c r="D356" t="s" s="0">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="E356" t="s" s="0">
         <v>182</v>
       </c>
       <c r="F356" t="s" s="0">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="G356" t="s" s="0">
         <v>133</v>
       </c>
       <c r="H356" t="s" s="0">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="I356" t="s" s="0">
         <v>27</v>
@@ -24738,13 +24741,13 @@
         <v>41</v>
       </c>
       <c r="P356" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="Q356" t="s">
         <v>29</v>
       </c>
       <c r="R356" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="S356" t="s">
         <v>36</v>
@@ -24752,7 +24755,7 @@
     </row>
     <row r="357">
       <c r="A357" t="s" s="0">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="B357" t="s" s="0">
         <v>20</v>
@@ -24761,13 +24764,13 @@
         <v>709</v>
       </c>
       <c r="D357" t="s" s="0">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="E357" t="s" s="0">
         <v>182</v>
       </c>
       <c r="F357" t="s" s="0">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="G357" t="s" s="0">
         <v>176</v>
@@ -24800,10 +24803,10 @@
         <v>738</v>
       </c>
       <c r="Q357" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="R357" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="S357" t="s">
         <v>41</v>
@@ -24811,7 +24814,7 @@
     </row>
     <row r="358">
       <c r="A358" t="s" s="0">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="B358" t="s" s="0">
         <v>20</v>
@@ -24820,13 +24823,13 @@
         <v>709</v>
       </c>
       <c r="D358" t="s" s="0">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="E358" t="s" s="0">
         <v>508</v>
       </c>
       <c r="F358" t="s" s="0">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="G358" t="s" s="0">
         <v>39</v>
@@ -24856,13 +24859,13 @@
         <v>36</v>
       </c>
       <c r="P358" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="Q358" t="s">
         <v>29</v>
       </c>
       <c r="R358" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="S358" t="s">
         <v>71</v>
@@ -24870,7 +24873,7 @@
     </row>
     <row r="359">
       <c r="A359" t="s" s="0">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="B359" t="s" s="0">
         <v>20</v>
@@ -24879,19 +24882,19 @@
         <v>709</v>
       </c>
       <c r="D359" t="s" s="0">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="E359" t="s" s="0">
         <v>508</v>
       </c>
       <c r="F359" t="s" s="0">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="G359" t="s" s="0">
         <v>39</v>
       </c>
       <c r="H359" t="s" s="0">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="I359" t="s" s="0">
         <v>27</v>
@@ -24915,13 +24918,13 @@
         <v>36</v>
       </c>
       <c r="P359" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="Q359" t="s">
         <v>29</v>
       </c>
       <c r="R359" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="S359" t="s">
         <v>60</v>
@@ -24929,7 +24932,7 @@
     </row>
     <row r="360">
       <c r="A360" t="s" s="0">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="B360" t="s" s="0">
         <v>20</v>
@@ -24938,19 +24941,19 @@
         <v>709</v>
       </c>
       <c r="D360" t="s" s="0">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="E360" t="s" s="0">
         <v>508</v>
       </c>
       <c r="F360" t="s" s="0">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="G360" t="s" s="0">
         <v>87</v>
       </c>
       <c r="H360" t="s" s="0">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="I360" t="s" s="0">
         <v>186</v>
@@ -24974,13 +24977,13 @@
         <v>36</v>
       </c>
       <c r="P360" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="Q360" t="s">
         <v>29</v>
       </c>
       <c r="R360" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="S360" t="s">
         <v>79</v>
@@ -24988,7 +24991,7 @@
     </row>
     <row r="361">
       <c r="A361" t="s" s="0">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="B361" t="s" s="0">
         <v>20</v>
@@ -24997,19 +25000,19 @@
         <v>709</v>
       </c>
       <c r="D361" t="s" s="0">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="E361" t="s" s="0">
         <v>508</v>
       </c>
       <c r="F361" t="s" s="0">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="G361" t="s" s="0">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="H361" t="s" s="0">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="I361" t="s" s="0">
         <v>276</v>
@@ -25033,10 +25036,10 @@
         <v>331</v>
       </c>
       <c r="P361" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="Q361" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="R361" t="s">
         <v>29</v>
@@ -25047,7 +25050,7 @@
     </row>
     <row r="362">
       <c r="A362" t="s" s="0">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="B362" t="s" s="0">
         <v>20</v>
@@ -25056,13 +25059,13 @@
         <v>709</v>
       </c>
       <c r="D362" t="s" s="0">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="E362" t="s" s="0">
         <v>508</v>
       </c>
       <c r="F362" t="s" s="0">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="G362" t="s" s="0">
         <v>481</v>
@@ -25092,13 +25095,13 @@
         <v>331</v>
       </c>
       <c r="P362" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="Q362" t="s">
         <v>29</v>
       </c>
       <c r="R362" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="S362" t="s">
         <v>36</v>
@@ -25106,7 +25109,7 @@
     </row>
     <row r="363">
       <c r="A363" t="s" s="0">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="B363" t="s" s="0">
         <v>20</v>
@@ -25115,13 +25118,13 @@
         <v>709</v>
       </c>
       <c r="D363" t="s" s="0">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="E363" t="s" s="0">
         <v>508</v>
       </c>
       <c r="F363" t="s" s="0">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="G363" t="s" s="0">
         <v>58</v>
@@ -25151,13 +25154,13 @@
         <v>331</v>
       </c>
       <c r="P363" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="Q363" t="s">
         <v>29</v>
       </c>
       <c r="R363" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="S363" t="s">
         <v>41</v>
@@ -25165,7 +25168,7 @@
     </row>
     <row r="364">
       <c r="A364" t="s" s="0">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="B364" t="s" s="0">
         <v>20</v>
@@ -25174,13 +25177,13 @@
         <v>709</v>
       </c>
       <c r="D364" t="s" s="0">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="E364" t="s" s="0">
         <v>439</v>
       </c>
       <c r="F364" t="s" s="0">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="G364" t="s" s="0">
         <v>39</v>
@@ -25216,7 +25219,7 @@
         <v>29</v>
       </c>
       <c r="R364" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="S364" t="s">
         <v>28</v>
@@ -25224,7 +25227,7 @@
     </row>
     <row r="365">
       <c r="A365" t="s" s="0">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="B365" t="s" s="0">
         <v>20</v>
@@ -25233,19 +25236,19 @@
         <v>709</v>
       </c>
       <c r="D365" t="s" s="0">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="E365" t="s" s="0">
         <v>439</v>
       </c>
       <c r="F365" t="s" s="0">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="G365" t="s" s="0">
         <v>304</v>
       </c>
       <c r="H365" t="s" s="0">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="I365" t="s" s="0">
         <v>186</v>
@@ -25283,7 +25286,7 @@
     </row>
     <row r="366">
       <c r="A366" t="s" s="0">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="B366" t="s" s="0">
         <v>20</v>
@@ -25292,19 +25295,19 @@
         <v>709</v>
       </c>
       <c r="D366" t="s" s="0">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="E366" t="s" s="0">
         <v>439</v>
       </c>
       <c r="F366" t="s" s="0">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="G366" t="s" s="0">
         <v>638</v>
       </c>
       <c r="H366" t="s" s="0">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="I366" t="s" s="0">
         <v>186</v>
@@ -25328,13 +25331,13 @@
         <v>36</v>
       </c>
       <c r="P366" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="Q366" t="s">
         <v>636</v>
       </c>
       <c r="R366" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="S366" t="s">
         <v>41</v>
@@ -25342,7 +25345,7 @@
     </row>
     <row r="367">
       <c r="A367" t="s" s="0">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="B367" t="s" s="0">
         <v>20</v>
@@ -25351,19 +25354,19 @@
         <v>709</v>
       </c>
       <c r="D367" t="s" s="0">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="E367" t="s" s="0">
         <v>439</v>
       </c>
       <c r="F367" t="s" s="0">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="G367" t="s" s="0">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="H367" t="s" s="0">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="I367" t="s" s="0">
         <v>186</v>
@@ -25393,7 +25396,7 @@
         <v>29</v>
       </c>
       <c r="R367" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="S367" t="s">
         <v>71</v>
@@ -25401,28 +25404,28 @@
     </row>
     <row r="368">
       <c r="A368" t="s" s="0">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="B368" t="s" s="0">
         <v>20</v>
       </c>
       <c r="C368" t="s" s="0">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="D368" t="s" s="0">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="E368" t="s" s="0">
         <v>508</v>
       </c>
       <c r="F368" t="s" s="0">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="G368" t="s" s="0">
         <v>176</v>
       </c>
       <c r="H368" t="s" s="0">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="I368" t="s" s="0">
         <v>27</v>
@@ -25446,7 +25449,7 @@
         <v>71</v>
       </c>
       <c r="P368" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="Q368" t="s">
         <v>29</v>
@@ -25460,22 +25463,22 @@
     </row>
     <row r="369">
       <c r="A369" t="s" s="0">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="B369" t="s" s="0">
         <v>20</v>
       </c>
       <c r="C369" t="s" s="0">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="D369" t="s" s="0">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="E369" t="s" s="0">
         <v>508</v>
       </c>
       <c r="F369" t="s" s="0">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="G369" t="s" s="0">
         <v>39</v>
@@ -25505,13 +25508,13 @@
         <v>71</v>
       </c>
       <c r="P369" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="Q369" t="s">
         <v>29</v>
       </c>
       <c r="R369" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="S369" t="s">
         <v>36</v>
@@ -25519,28 +25522,28 @@
     </row>
     <row r="370">
       <c r="A370" t="s" s="0">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="B370" t="s" s="0">
         <v>20</v>
       </c>
       <c r="C370" t="s" s="0">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="D370" t="s" s="0">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="E370" t="s" s="0">
         <v>508</v>
       </c>
       <c r="F370" t="s" s="0">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="G370" t="s" s="0">
         <v>39</v>
       </c>
       <c r="H370" t="s" s="0">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="I370" t="s" s="0">
         <v>27</v>
@@ -25564,13 +25567,13 @@
         <v>71</v>
       </c>
       <c r="P370" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="Q370" t="s">
         <v>29</v>
       </c>
       <c r="R370" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="S370" t="s">
         <v>41</v>
@@ -25578,28 +25581,28 @@
     </row>
     <row r="371">
       <c r="A371" t="s" s="0">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="B371" t="s" s="0">
         <v>20</v>
       </c>
       <c r="C371" t="s" s="0">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="D371" t="s" s="0">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="E371" t="s" s="0">
         <v>508</v>
       </c>
       <c r="F371" t="s" s="0">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="G371" t="s" s="0">
         <v>39</v>
       </c>
       <c r="H371" t="s" s="0">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="I371" t="s" s="0">
         <v>27</v>
@@ -25623,13 +25626,13 @@
         <v>71</v>
       </c>
       <c r="P371" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="Q371" t="s">
         <v>29</v>
       </c>
       <c r="R371" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="S371" t="s">
         <v>71</v>
@@ -25637,28 +25640,28 @@
     </row>
     <row r="372">
       <c r="A372" t="s" s="0">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="B372" t="s" s="0">
         <v>20</v>
       </c>
       <c r="C372" t="s" s="0">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="D372" t="s" s="0">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="E372" t="s" s="0">
         <v>91</v>
       </c>
       <c r="F372" t="s" s="0">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="G372" t="s" s="0">
         <v>645</v>
       </c>
       <c r="H372" t="s" s="0">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="I372" t="s" s="0">
         <v>27</v>
@@ -25682,13 +25685,13 @@
         <v>71</v>
       </c>
       <c r="P372" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="Q372" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="R372" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="S372" t="s">
         <v>560</v>
@@ -25696,28 +25699,28 @@
     </row>
     <row r="373">
       <c r="A373" t="s" s="0">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="B373" t="s" s="0">
         <v>20</v>
       </c>
       <c r="C373" t="s" s="0">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="D373" t="s" s="0">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="E373" t="s" s="0">
         <v>91</v>
       </c>
       <c r="F373" t="s" s="0">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="G373" t="s" s="0">
         <v>58</v>
       </c>
       <c r="H373" t="s" s="0">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="I373" t="s" s="0">
         <v>27</v>
@@ -25741,13 +25744,13 @@
         <v>71</v>
       </c>
       <c r="P373" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="Q373" t="s">
         <v>29</v>
       </c>
       <c r="R373" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="S373" t="s">
         <v>28</v>
@@ -25755,28 +25758,28 @@
     </row>
     <row r="374">
       <c r="A374" t="s" s="0">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="B374" t="s" s="0">
         <v>20</v>
       </c>
       <c r="C374" t="s" s="0">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="D374" t="s" s="0">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="E374" t="s" s="0">
         <v>91</v>
       </c>
       <c r="F374" t="s" s="0">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="G374" t="s" s="0">
         <v>58</v>
       </c>
       <c r="H374" t="s" s="0">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="I374" t="s" s="0">
         <v>27</v>
@@ -25800,13 +25803,13 @@
         <v>71</v>
       </c>
       <c r="P374" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="Q374" t="s">
         <v>29</v>
       </c>
       <c r="R374" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="S374" t="s">
         <v>36</v>
@@ -25814,28 +25817,28 @@
     </row>
     <row r="375">
       <c r="A375" t="s" s="0">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="B375" t="s" s="0">
         <v>20</v>
       </c>
       <c r="C375" t="s" s="0">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="D375" t="s" s="0">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="E375" t="s" s="0">
         <v>91</v>
       </c>
       <c r="F375" t="s" s="0">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="G375" t="s" s="0">
         <v>483</v>
       </c>
       <c r="H375" t="s" s="0">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="I375" t="s" s="0">
         <v>27</v>
@@ -25859,13 +25862,13 @@
         <v>71</v>
       </c>
       <c r="P375" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="Q375" t="s">
         <v>29</v>
       </c>
       <c r="R375" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="S375" t="s">
         <v>41</v>
@@ -25873,28 +25876,28 @@
     </row>
     <row r="376">
       <c r="A376" t="s" s="0">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="B376" t="s" s="0">
         <v>20</v>
       </c>
       <c r="C376" t="s" s="0">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="D376" t="s" s="0">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="E376" t="s" s="0">
         <v>91</v>
       </c>
       <c r="F376" t="s" s="0">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="G376" t="s" s="0">
         <v>498</v>
       </c>
       <c r="H376" t="s" s="0">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="I376" t="s" s="0">
         <v>27</v>
@@ -25918,13 +25921,13 @@
         <v>71</v>
       </c>
       <c r="P376" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="Q376" t="s">
         <v>29</v>
       </c>
       <c r="R376" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="S376" t="s">
         <v>71</v>
@@ -25932,28 +25935,28 @@
     </row>
     <row r="377">
       <c r="A377" t="s" s="0">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="B377" t="s" s="0">
         <v>20</v>
       </c>
       <c r="C377" t="s" s="0">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="D377" t="s" s="0">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="E377" t="s" s="0">
         <v>91</v>
       </c>
       <c r="F377" t="s" s="0">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="G377" t="s" s="0">
         <v>498</v>
       </c>
       <c r="H377" t="s" s="0">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="I377" t="s" s="0">
         <v>27</v>
@@ -25991,28 +25994,28 @@
     </row>
     <row r="378">
       <c r="A378" t="s" s="0">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="B378" t="s" s="0">
         <v>20</v>
       </c>
       <c r="C378" t="s" s="0">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="D378" t="s" s="0">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="E378" t="s" s="0">
         <v>91</v>
       </c>
       <c r="F378" t="s" s="0">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="G378" t="s" s="0">
         <v>498</v>
       </c>
       <c r="H378" t="s" s="0">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="I378" t="s" s="0">
         <v>27</v>
@@ -26036,13 +26039,13 @@
         <v>71</v>
       </c>
       <c r="P378" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="Q378" t="s">
         <v>29</v>
       </c>
       <c r="R378" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="S378" t="s">
         <v>79</v>
@@ -26050,22 +26053,22 @@
     </row>
     <row r="379">
       <c r="A379" t="s" s="0">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="B379" t="s" s="0">
         <v>20</v>
       </c>
       <c r="C379" t="s" s="0">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="D379" t="s" s="0">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="E379" t="s" s="0">
         <v>91</v>
       </c>
       <c r="F379" t="s" s="0">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="G379" t="s" s="0">
         <v>39</v>
@@ -26095,13 +26098,13 @@
         <v>71</v>
       </c>
       <c r="P379" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="Q379" t="s">
         <v>29</v>
       </c>
       <c r="R379" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="S379" t="s">
         <v>31</v>
@@ -26109,22 +26112,22 @@
     </row>
     <row r="380">
       <c r="A380" t="s" s="0">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="B380" t="s" s="0">
         <v>20</v>
       </c>
       <c r="C380" t="s" s="0">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="D380" t="s" s="0">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="E380" t="s" s="0">
         <v>91</v>
       </c>
       <c r="F380" t="s" s="0">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="G380" t="s" s="0">
         <v>39</v>
@@ -26154,13 +26157,13 @@
         <v>71</v>
       </c>
       <c r="P380" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="Q380" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="R380" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="S380" t="s">
         <v>82</v>
@@ -26168,22 +26171,22 @@
     </row>
     <row r="381">
       <c r="A381" t="s" s="0">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="B381" t="s" s="0">
         <v>20</v>
       </c>
       <c r="C381" t="s" s="0">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="D381" t="s" s="0">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="E381" t="s" s="0">
         <v>91</v>
       </c>
       <c r="F381" t="s" s="0">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="G381" t="s" s="0">
         <v>39</v>
@@ -26213,13 +26216,13 @@
         <v>71</v>
       </c>
       <c r="P381" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="Q381" t="s">
         <v>29</v>
       </c>
       <c r="R381" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="S381" t="s">
         <v>259</v>
@@ -26227,28 +26230,28 @@
     </row>
     <row r="382">
       <c r="A382" t="s" s="0">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="B382" t="s" s="0">
         <v>20</v>
       </c>
       <c r="C382" t="s" s="0">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="D382" t="s" s="0">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="E382" t="s" s="0">
         <v>91</v>
       </c>
       <c r="F382" t="s" s="0">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="G382" t="s" s="0">
         <v>184</v>
       </c>
       <c r="H382" t="s" s="0">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="I382" t="s" s="0">
         <v>27</v>
@@ -26272,13 +26275,13 @@
         <v>71</v>
       </c>
       <c r="P382" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="Q382" t="s">
         <v>29</v>
       </c>
       <c r="R382" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="S382" t="s">
         <v>95</v>
@@ -26286,22 +26289,22 @@
     </row>
     <row r="383">
       <c r="A383" t="s" s="0">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="B383" t="s" s="0">
         <v>20</v>
       </c>
       <c r="C383" t="s" s="0">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="D383" t="s" s="0">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="E383" t="s" s="0">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="F383" t="s" s="0">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="G383" t="s" s="0">
         <v>58</v>
@@ -26345,28 +26348,28 @@
     </row>
     <row r="384">
       <c r="A384" t="s" s="0">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="B384" t="s" s="0">
         <v>20</v>
       </c>
       <c r="C384" t="s" s="0">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="D384" t="s" s="0">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="E384" t="s" s="0">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="F384" t="s" s="0">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="G384" t="s" s="0">
         <v>58</v>
       </c>
       <c r="H384" t="s" s="0">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="I384" t="s" s="0">
         <v>27</v>
@@ -26393,7 +26396,7 @@
         <v>29</v>
       </c>
       <c r="Q384" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="R384" t="s">
         <v>29</v>
@@ -26404,28 +26407,28 @@
     </row>
     <row r="385">
       <c r="A385" t="s" s="0">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="B385" t="s" s="0">
         <v>20</v>
       </c>
       <c r="C385" t="s" s="0">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="D385" t="s" s="0">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="E385" t="s" s="0">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="F385" t="s" s="0">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="G385" t="s" s="0">
         <v>424</v>
       </c>
       <c r="H385" t="s" s="0">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="I385" t="s" s="0">
         <v>27</v>
@@ -26449,13 +26452,13 @@
         <v>79</v>
       </c>
       <c r="P385" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="Q385" t="s">
         <v>29</v>
       </c>
       <c r="R385" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="S385" t="s">
         <v>41</v>
@@ -26463,22 +26466,22 @@
     </row>
     <row r="386">
       <c r="A386" t="s" s="0">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="B386" t="s" s="0">
         <v>20</v>
       </c>
       <c r="C386" t="s" s="0">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="D386" t="s" s="0">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="E386" t="s" s="0">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="F386" t="s" s="0">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="G386" t="s" s="0">
         <v>39</v>
@@ -26508,13 +26511,13 @@
         <v>79</v>
       </c>
       <c r="P386" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="Q386" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="R386" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="S386" t="s">
         <v>71</v>
@@ -26522,22 +26525,22 @@
     </row>
     <row r="387">
       <c r="A387" t="s" s="0">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="B387" t="s" s="0">
         <v>20</v>
       </c>
       <c r="C387" t="s" s="0">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="D387" t="s" s="0">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="E387" t="s" s="0">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="F387" t="s" s="0">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="G387" t="s" s="0">
         <v>39</v>
@@ -26581,25 +26584,25 @@
     </row>
     <row r="388">
       <c r="A388" t="s" s="0">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="B388" t="s" s="0">
         <v>20</v>
       </c>
       <c r="C388" t="s" s="0">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="D388" t="s" s="0">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="E388" t="s" s="0">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="F388" t="s" s="0">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="G388" t="s" s="0">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="H388" t="s" s="0">
         <v>187</v>
@@ -26640,22 +26643,22 @@
     </row>
     <row r="389">
       <c r="A389" t="s" s="0">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="B389" t="s" s="0">
         <v>20</v>
       </c>
       <c r="C389" t="s" s="0">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="D389" t="s" s="0">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="E389" t="s" s="0">
         <v>47</v>
       </c>
       <c r="F389" t="s" s="0">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="G389" t="s" s="0">
         <v>39</v>
@@ -26685,13 +26688,13 @@
         <v>36</v>
       </c>
       <c r="P389" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="Q389" t="s">
         <v>29</v>
       </c>
       <c r="R389" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="S389" t="s">
         <v>28</v>
@@ -26699,22 +26702,22 @@
     </row>
     <row r="390">
       <c r="A390" t="s" s="0">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="B390" t="s" s="0">
         <v>20</v>
       </c>
       <c r="C390" t="s" s="0">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="D390" t="s" s="0">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="E390" t="s" s="0">
         <v>47</v>
       </c>
       <c r="F390" t="s" s="0">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="G390" t="s" s="0">
         <v>645</v>
@@ -26758,28 +26761,28 @@
     </row>
     <row r="391">
       <c r="A391" t="s" s="0">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="B391" t="s" s="0">
         <v>20</v>
       </c>
       <c r="C391" t="s" s="0">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="D391" t="s" s="0">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="E391" t="s" s="0">
         <v>47</v>
       </c>
       <c r="F391" t="s" s="0">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="G391" t="s" s="0">
         <v>603</v>
       </c>
       <c r="H391" t="s" s="0">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="I391" t="s" s="0">
         <v>186</v>
@@ -26803,13 +26806,13 @@
         <v>36</v>
       </c>
       <c r="P391" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="Q391" t="s">
         <v>29</v>
       </c>
       <c r="R391" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="S391" t="s">
         <v>41</v>
@@ -26817,22 +26820,22 @@
     </row>
     <row r="392">
       <c r="A392" t="s" s="0">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="B392" t="s" s="0">
         <v>20</v>
       </c>
       <c r="C392" t="s" s="0">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="D392" t="s" s="0">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="E392" t="s" s="0">
         <v>422</v>
       </c>
       <c r="F392" t="s" s="0">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="G392" t="s" s="0">
         <v>793</v>
@@ -26856,7 +26859,7 @@
         <f>IFERROR(K392/J392,0)</f>
       </c>
       <c r="N392" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="O392" t="s">
         <v>28</v>
@@ -26876,22 +26879,22 @@
     </row>
     <row r="393">
       <c r="A393" t="s" s="0">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="B393" t="s" s="0">
         <v>20</v>
       </c>
       <c r="C393" t="s" s="0">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="D393" t="s" s="0">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="E393" t="s" s="0">
         <v>422</v>
       </c>
       <c r="F393" t="s" s="0">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="G393" t="s" s="0">
         <v>58</v>
@@ -26915,19 +26918,19 @@
         <f>IFERROR(K393/J393,0)</f>
       </c>
       <c r="N393" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="O393" t="s">
         <v>28</v>
       </c>
       <c r="P393" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="Q393" t="s">
         <v>29</v>
       </c>
       <c r="R393" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="S393" t="s">
         <v>36</v>
@@ -26935,22 +26938,22 @@
     </row>
     <row r="394">
       <c r="A394" t="s" s="0">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="B394" t="s" s="0">
         <v>20</v>
       </c>
       <c r="C394" t="s" s="0">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="D394" t="s" s="0">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="E394" t="s" s="0">
         <v>422</v>
       </c>
       <c r="F394" t="s" s="0">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="G394" t="s" s="0">
         <v>39</v>
@@ -26974,19 +26977,19 @@
         <f>IFERROR(K394/J394,0)</f>
       </c>
       <c r="N394" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="O394" t="s">
         <v>28</v>
       </c>
       <c r="P394" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="Q394" t="s">
         <v>29</v>
       </c>
       <c r="R394" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="S394" t="s">
         <v>41</v>
